--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\source\repos\Raycaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{4D52A115-AEF8-4FD4-AAB8-562C5B95B69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{C31F3E24-2844-40B7-B358-913D2D5ADDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="195" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CPU without textures</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>GPU with texture object</t>
+  </si>
+  <si>
+    <t>Block size</t>
+  </si>
+  <si>
+    <t>FPS</t>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
                   <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>346</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -703,7 +709,7 @@
                   <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>343</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,6 +892,497 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FPS (with texture object) vs block size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>292</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6119-4160-BE80-A425342117C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2021844080"/>
+        <c:axId val="2021834960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2021844080"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>Block size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021834960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2021834960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="240"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021844080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -966,6 +1463,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
@@ -1966,6 +2503,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2039,6 +3092,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6CFE06-F3F2-AD4A-E4A2-A8B5674ADDFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2364,10 +3453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,10 +3523,107 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <v>347</v>
+      </c>
+      <c r="C6">
         <v>346</v>
       </c>
-      <c r="C6">
-        <v>343</v>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A26*2</f>
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>A27*2</f>
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>A28*2</f>
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>A29*2</f>
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>A30*2</f>
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ref="A32:A34" si="0">A31*2</f>
+        <v>128</v>
+      </c>
+      <c r="B32">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="B33">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="B34">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>A34*2</f>
+        <v>1024</v>
+      </c>
+      <c r="B35">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\source\repos\Raycaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{C31F3E24-2844-40B7-B358-913D2D5ADDFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463E5268-53EE-4B06-A3DC-F393BA7C0B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="195" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="195" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>CPU without textures</t>
   </si>
@@ -64,11 +64,14 @@
   <si>
     <t>FPS</t>
   </si>
+  <si>
+    <t>Python3 (second year)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,22 +284,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Python3 (second year)</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>CPU without textures</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>CPU with textures</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>GPU without textures</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>GPU with textures</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>GPU with texture object</c:v>
                 </c:pt>
               </c:strCache>
@@ -304,23 +310,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>267</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>349</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>347</c:v>
                 </c:pt>
               </c:numCache>
@@ -669,22 +678,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Python3 (second year)</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>CPU without textures</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>CPU with textures</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>GPU without textures</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>GPU with textures</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>GPU with texture object</c:v>
                 </c:pt>
               </c:strCache>
@@ -692,23 +704,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>289</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>252</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>350</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>337</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>346</c:v>
                 </c:pt>
               </c:numCache>
@@ -972,7 +987,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
+              <c:f>Sheet1!$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1007,7 +1022,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$26:$A$35</c:f>
+              <c:f>Sheet1!$A$27:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1046,7 +1061,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$35</c:f>
+              <c:f>Sheet1!$B$27:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3029,13 +3044,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3065,13 +3080,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3101,13 +3116,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3452,11 +3467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3476,153 +3491,164 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>289</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="C3">
-        <v>252</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="C4">
-        <v>350</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="C5">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>338</v>
+      </c>
+      <c r="C6">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>347</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>243</v>
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>A26*2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>290</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>A27*2</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>322</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>A28*2</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>342</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>A29*2</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>A30*2</f>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" ref="A32:A34" si="0">A31*2</f>
-        <v>128</v>
+        <f>A31*2</f>
+        <v>64</v>
       </c>
       <c r="B32">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
-        <v>256</v>
+        <f t="shared" ref="A33:A35" si="0">A32*2</f>
+        <v>128</v>
       </c>
       <c r="B33">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="B34">
-        <v>318</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>A34*2</f>
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="B35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>A35*2</f>
         <v>1024</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>292</v>
       </c>
     </row>
